--- a/data/xlsx/P-学习时长-数学2024.xlsx
+++ b/data/xlsx/P-学习时长-数学2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2801,6 +2801,31 @@
       </c>
       <c r="G92" t="inlineStr"/>
     </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024.12.24</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>9:45-11:30, 14:00-17:00, 17:40-20:10</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/P-学习时长-数学2024.xlsx
+++ b/data/xlsx/P-学习时长-数学2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2826,6 +2826,156 @@
       </c>
       <c r="G93" t="inlineStr"/>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2024.12.25</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>14:00-15:30</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2024.12.26</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>9:45-11:15, 15:00-15:30</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2024.12.27</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>14:20-16:50</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2024.12.28</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>14:30-17:00, 17:30-21:30</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>4</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2024.12.29</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>8:40-11:40, 14:15-17:00, 17:30-21:00</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>3</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2024.12.30</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>4</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>9:00-11:30, 14:00-15:30</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/P-学习时长-数学2024.xlsx
+++ b/data/xlsx/P-学习时长-数学2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2974,7 +2974,36 @@
       <c r="F99" t="n">
         <v>0</v>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>张宇高数强化一刷。本阶段总计62.00h</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2024.12.31</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>9:45-11:30, 14:30-16:15</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/xlsx/P-学习时长-数学2024.xlsx
+++ b/data/xlsx/P-学习时长-数学2024.xlsx
@@ -627,21 +627,21 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.66667</v>
+        <v>3.91667</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:45-15:25</t>
+          <t>13:45-15:25, 15:30-17:00, 17:45-18:30</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.66667</v>
+        <v>3.16667</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>汤家凤高数一轮。本阶段总计63.25h</t>
+          <t>汤家凤高数一轮。本阶段总计65.50h</t>
         </is>
       </c>
     </row>
